--- a/biology/Écologie/Substance_persistante,_bioaccumulable_et_toxique/Substance_persistante,_bioaccumulable_et_toxique.xlsx
+++ b/biology/Écologie/Substance_persistante,_bioaccumulable_et_toxique/Substance_persistante,_bioaccumulable_et_toxique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une substance persistante, bioaccumulable et toxique (substance PBT) est une substance chimique qui présente des risques de persistance, de bioaccumulation et de toxicité[1],[2]. Par exemple, les éléments-traces métalliques (comme le mercure) et les polluants organiques persistants (POPs) sont des substances PBT[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une substance persistante, bioaccumulable et toxique (substance PBT) est une substance chimique qui présente des risques de persistance, de bioaccumulation et de toxicité,. Par exemple, les éléments-traces métalliques (comme le mercure) et les polluants organiques persistants (POPs) sont des substances PBT.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Indice PBT</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Conseil du comté de Stockholm et la corporation nationale des pharmacies suédoises (sv), a établi une liste des médicaments avec leur indice de Persistance, Bioaccumulation et Toxicité (PBT)[4] à partir des données fournies par les dossiers d’AMM, les tests de laboratoire et des industriels.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil du comté de Stockholm et la corporation nationale des pharmacies suédoises (sv), a établi une liste des médicaments avec leur indice de Persistance, Bioaccumulation et Toxicité (PBT) à partir des données fournies par les dossiers d’AMM, les tests de laboratoire et des industriels.
 </t>
         </is>
       </c>
